--- a/resumen.xlsx
+++ b/resumen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leviathan\Desktop\cpmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{037994F2-E0A0-46FE-AA8E-2CF197CB1FA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D38931-B664-4CBA-B4D6-128A66C1C76A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{141C22D9-E9D1-4BF3-A42C-4052315AC2A8}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="28">
   <si>
     <t>Moves</t>
   </si>
@@ -138,74 +138,14 @@
     <t>Promeiours'nt</t>
   </si>
   <si>
-    <t>11.28</t>
-  </si>
-  <si>
-    <t>10.80</t>
-  </si>
-  <si>
-    <t>12.08</t>
-  </si>
-  <si>
-    <t>12.98</t>
-  </si>
-  <si>
-    <t>14.75</t>
-  </si>
-  <si>
-    <t>15.65</t>
-  </si>
-  <si>
-    <t>21.88</t>
-  </si>
-  <si>
-    <t>23.08</t>
-  </si>
-  <si>
-    <t>24.75</t>
-  </si>
-  <si>
-    <t>27.63</t>
-  </si>
-  <si>
-    <t>35.08</t>
-  </si>
-  <si>
-    <t>35.33</t>
-  </si>
-  <si>
-    <t>39.88</t>
-  </si>
-  <si>
-    <t>41.68</t>
-  </si>
-  <si>
-    <t>47.50</t>
-  </si>
-  <si>
-    <t>50.45</t>
-  </si>
-  <si>
-    <t>54.63</t>
-  </si>
-  <si>
-    <t>55.23</t>
-  </si>
-  <si>
-    <t>75.60</t>
-  </si>
-  <si>
-    <t>140.63</t>
-  </si>
-  <si>
-    <t>179.23</t>
+    <t>PIOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +181,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +209,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -274,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -298,6 +264,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7388A4A-90ED-4DF4-9AA1-23F706D57E0D}">
-  <dimension ref="B2:D23"/>
+  <dimension ref="B2:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,9 +597,10 @@
     <col min="2" max="2" width="11.5546875" style="6"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
@@ -640,8 +610,11 @@
       <c r="D2" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="F2" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
@@ -649,11 +622,16 @@
         <f>'3-3'!F2</f>
         <v>12.475</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="D3" s="1">
+        <v>11.28</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3">
+        <f>C3/D3</f>
+        <v>1.1059397163120568</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
@@ -661,11 +639,16 @@
         <f>'3-4'!F2</f>
         <v>13.725</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="D4" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4">
+        <f t="shared" ref="F4:F23" si="0">C4/D4</f>
+        <v>1.2708333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
@@ -673,11 +656,16 @@
         <f>'3-5'!F2</f>
         <v>16.95</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="D5" s="1">
+        <v>12.08</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1.4031456953642383</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
@@ -685,11 +673,16 @@
         <f>'3-6'!F2</f>
         <v>18.25</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="D6" s="1">
+        <v>12.98</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1.4060092449922958</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
@@ -697,11 +690,16 @@
         <f>'3-7'!F2</f>
         <v>20.85</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="D7" s="1">
+        <v>14.75</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.4135593220338984</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
@@ -709,11 +707,16 @@
         <f>'3-8'!F2</f>
         <v>22.324999999999999</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="D8" s="1">
+        <v>15.65</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1.4265175718849838</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
@@ -721,11 +724,16 @@
         <f>'4-4'!F2</f>
         <v>24.225000000000001</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="D9" s="1">
+        <v>21.88</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1.1071755027422305</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
@@ -733,11 +741,16 @@
         <f>'4-5'!F2</f>
         <v>30.675000000000001</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="D10" s="1">
+        <v>23.08</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1.3290727902946275</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
@@ -745,11 +758,16 @@
         <f>'4-6'!F2</f>
         <v>32.825000000000003</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="D11" s="1">
+        <v>24.75</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1.3262626262626265</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
@@ -757,11 +775,16 @@
         <f>'4-7'!F2</f>
         <v>36.924999999999997</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="D12" s="1">
+        <v>27.63</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1.3364096996018819</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
@@ -769,11 +792,16 @@
         <f>'5-4'!F2</f>
         <v>33.924999999999997</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="D13" s="1">
+        <v>35.08</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.96707525655644233</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
@@ -781,11 +809,16 @@
         <f>'5-5'!F2</f>
         <v>40.549999999999997</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="D14" s="1">
+        <v>35.33</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.1477497877158223</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
@@ -793,11 +826,16 @@
         <f>'5-6'!F2</f>
         <v>48.274999999999999</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="D15" s="1">
+        <v>39.880000000000003</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1.2105065195586759</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
@@ -805,11 +843,16 @@
         <f>'5-7'!F2</f>
         <v>54.9</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="D16" s="1">
+        <v>41.68</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1.3171785028790786</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
@@ -817,11 +860,16 @@
         <f>'5-8'!F2</f>
         <v>63.075000000000003</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="D17" s="1">
+        <v>47.5</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1.3278947368421052</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>19</v>
       </c>
@@ -829,11 +877,16 @@
         <f>'5-9'!F2</f>
         <v>68.924999999999997</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="D18" s="1">
+        <v>50.45</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1.3662041625371655</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>20</v>
       </c>
@@ -841,11 +894,16 @@
         <f>'5-10'!F2</f>
         <v>73.45</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="D19" s="1">
+        <v>54.63</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1.3444993593263774</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>21</v>
       </c>
@@ -853,11 +911,16 @@
         <f>'6-6'!F2</f>
         <v>63.825000000000003</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="D20" s="1">
+        <v>55.23</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1.1556219445953286</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>22</v>
       </c>
@@ -865,11 +928,16 @@
         <f>'6-10'!F2</f>
         <v>97.85</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="D21" s="1">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1.2943121693121693</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>23</v>
       </c>
@@ -877,11 +945,16 @@
         <f>'10-6'!F2</f>
         <v>112.35</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="D22" s="1">
+        <v>140.63</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.79890492782478839</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>24</v>
       </c>
@@ -889,8 +962,13 @@
         <f>'10-10'!F2</f>
         <v>188.1</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>47</v>
+      <c r="D23" s="1">
+        <v>179.23</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1.0494894827874799</v>
       </c>
     </row>
   </sheetData>
@@ -1383,13 +1461,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B0C7FE-EBE5-45DB-AE17-D821A03A7148}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.109375" style="3" bestFit="1" customWidth="1"/>
@@ -1397,7 +1475,7 @@
     <col min="4" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1408,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1426,7 +1504,7 @@
         <v>40.549999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1437,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1448,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1459,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1470,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1481,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1492,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1503,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1514,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1525,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1536,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1547,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1558,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1569,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1580,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1591,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1602,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1613,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1624,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1635,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1646,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1657,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1668,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1679,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1690,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1701,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1712,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1723,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1734,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1745,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -1756,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1767,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1778,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1789,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1800,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -1811,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1822,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -1833,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -1844,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -1855,7 +1933,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4974,7 +5051,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="A1:XFD1048576"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5573,7 +5650,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="A1:C41"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6169,18 +6246,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0883B8-B595-4275-851D-1EBA132354B5}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -6191,7 +6268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -6209,7 +6286,7 @@
         <v>188.1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -6220,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -6231,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -6242,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -6253,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -6264,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -6275,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -6286,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -6297,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -6308,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -6319,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -6330,7 +6407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -6341,7 +6418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -6352,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -6363,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -6374,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -6385,7 +6462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -6396,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -6407,7 +6484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -6418,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -6429,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -6440,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -6451,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -6462,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -6473,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -6484,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -6495,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -6506,7 +6583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -6517,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -6528,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -6539,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -6550,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -6561,7 +6638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -6572,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -6583,7 +6660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -6594,7 +6671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -6605,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -6616,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -6627,7 +6704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -6638,7 +6715,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6649,7 +6725,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="A1:XFD1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7248,7 +7324,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="A1:XFD1048576"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7847,8 +7923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD15927-13AF-4B36-9C98-7C1FA0765B48}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8324,18 +8400,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0221AEDB-B50A-48A9-9D6F-4376EAF7CD4E}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -8346,7 +8422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -8364,7 +8440,7 @@
         <v>112.35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -8375,7 +8451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -8386,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -8397,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -8408,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -8419,7 +8495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -8430,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -8441,7 +8517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -8452,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -8463,7 +8539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -8474,7 +8550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -8485,7 +8561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -8496,7 +8572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -8507,7 +8583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -8518,7 +8594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -8529,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -8540,7 +8616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -8551,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -8562,7 +8638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -8573,7 +8649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -8584,7 +8660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -8595,7 +8671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -8606,7 +8682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -8617,7 +8693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -8628,7 +8704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -8639,7 +8715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -8650,7 +8726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -8661,7 +8737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -8672,7 +8748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -8683,7 +8759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -8694,7 +8770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -8705,7 +8781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -8716,7 +8792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -8727,7 +8803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -8738,7 +8814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -8749,7 +8825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -8760,7 +8836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -8771,7 +8847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -8782,7 +8858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -8793,7 +8869,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11306,20 +11381,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FF1DF8-4D4C-4C9F-BF89-FE52E6CF3B2B}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.5546875" style="3"/>
     <col min="3" max="3" width="13.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -11330,7 +11405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -11348,7 +11423,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -11359,7 +11434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -11370,7 +11445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -11381,7 +11456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -11392,7 +11467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -11403,7 +11478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -11414,7 +11489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -11425,7 +11500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -11436,7 +11511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -11447,7 +11522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -11458,7 +11533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -11469,7 +11544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -11480,7 +11555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -11491,7 +11566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -11502,7 +11577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -11513,7 +11588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -11524,7 +11599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -11535,7 +11610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -11546,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -11557,7 +11632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -11568,7 +11643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -11579,7 +11654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -11590,7 +11665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -11601,7 +11676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -11612,7 +11687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -11623,7 +11698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -11634,7 +11709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -11645,7 +11720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -11656,7 +11731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -11667,7 +11742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -11678,7 +11753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -11689,7 +11764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -11700,7 +11775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -11711,7 +11786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -11722,7 +11797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -11733,7 +11808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -11744,7 +11819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -11755,7 +11830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -11766,7 +11841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -11777,7 +11852,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
